--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched_since_2021/ifoCAst_errors_filtered_latest_since_2021_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched_since_2021/ifoCAst_errors_filtered_latest_since_2021_GVA.xlsx
@@ -504,7 +504,7 @@
         <v>-0.7329669010363498</v>
       </c>
       <c r="D5">
-        <v>0.06591665687274018</v>
+        <v>0.07541333303608777</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -515,10 +515,10 @@
         <v>-0.3339644000363498</v>
       </c>
       <c r="C6">
-        <v>1.68749419387274</v>
+        <v>1.696990870036088</v>
       </c>
       <c r="D6">
-        <v>0.4630429864259835</v>
+        <v>0.44417418258209</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -526,13 +526,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1808837928727403</v>
+        <v>0.1903804690360879</v>
       </c>
       <c r="C7">
-        <v>1.088701449425983</v>
+        <v>1.06983264558209</v>
       </c>
       <c r="D7">
-        <v>-0.9686075303002357</v>
+        <v>-0.9590976180317647</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -540,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.6881010354259836</v>
+        <v>0.66923223158209</v>
       </c>
       <c r="C8">
-        <v>-0.8547584633002359</v>
+        <v>-0.8452485510317647</v>
       </c>
       <c r="D8">
         <v>0.2901758192907124</v>
@@ -554,13 +554,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-1.095357142300236</v>
+        <v>-1.085847230031765</v>
       </c>
       <c r="C9">
         <v>0.1761002812907124</v>
       </c>
       <c r="D9">
-        <v>0.982640004264559</v>
+        <v>0.9920349685636995</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -571,10 +571,10 @@
         <v>0.0971330122907124</v>
       </c>
       <c r="C10">
-        <v>0.923930449264559</v>
+        <v>0.9333254135636995</v>
       </c>
       <c r="D10">
-        <v>0.8765450433311289</v>
+        <v>0.8577491755291454</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -582,13 +582,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.111666588264559</v>
+        <v>1.1210615525637</v>
       </c>
       <c r="C11">
-        <v>0.4073451583311289</v>
+        <v>0.3885492905291454</v>
       </c>
       <c r="D11">
-        <v>-0.8968591131624527</v>
+        <v>-0.8873425837224346</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -596,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.437053797331129</v>
+        <v>0.4182579295291455</v>
       </c>
       <c r="C12">
-        <v>-0.6550085641624527</v>
+        <v>-0.6454920347224345</v>
       </c>
       <c r="D12">
-        <v>-1.033768334937675</v>
+        <v>-1.024285167559779</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -610,13 +610,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.5639247011624527</v>
+        <v>-0.5544081717224345</v>
       </c>
       <c r="C13">
-        <v>-1.200998811033057</v>
+        <v>-1.191515643655161</v>
       </c>
       <c r="D13">
-        <v>1.016878087510011</v>
+        <v>1.016949629488724</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -624,13 +624,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-1.274882450912215</v>
+        <v>-1.26539928353432</v>
       </c>
       <c r="C14">
-        <v>0.5245482115100106</v>
+        <v>0.5246197534887239</v>
       </c>
       <c r="D14">
-        <v>0.3271357364848366</v>
+        <v>0.3082097950934801</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -638,13 +638,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.3294742345100106</v>
+        <v>0.3295457764887239</v>
       </c>
       <c r="C15">
-        <v>0.5358974354848366</v>
+        <v>0.5169714940934801</v>
       </c>
       <c r="D15">
-        <v>0.8327439828064123</v>
+        <v>0.8421929667131937</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -652,10 +652,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.01077749951516341</v>
+        <v>-0.02970344090651991</v>
       </c>
       <c r="C16">
-        <v>-0.1893556991935877</v>
+        <v>-0.1799067152868063</v>
       </c>
       <c r="D16">
         <v>0.5381773248377819</v>
@@ -666,13 +666,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-0.2764766371935877</v>
+        <v>-0.2670276532868063</v>
       </c>
       <c r="C17">
         <v>0.411496762837782</v>
       </c>
       <c r="D17">
-        <v>-0.5094533513890247</v>
+        <v>-0.4617206544916527</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -683,10 +683,10 @@
         <v>0.5544511758377819</v>
       </c>
       <c r="C18">
-        <v>-0.2311459983890247</v>
+        <v>-0.1834133014916527</v>
       </c>
       <c r="D18">
-        <v>0.6341935262360052</v>
+        <v>0.5298148361758083</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -694,10 +694,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-0.01419920438902478</v>
+        <v>0.03353349250834725</v>
       </c>
       <c r="C19">
-        <v>0.2280757452360053</v>
+        <v>0.1236970551758083</v>
+      </c>
+      <c r="D19">
+        <v>0.5311946523564907</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -705,7 +708,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0212972287639947</v>
+        <v>-0.1256759188241917</v>
+      </c>
+      <c r="C20">
+        <v>-0.02418658464350926</v>
       </c>
     </row>
   </sheetData>
